--- a/template/activity_order.xlsx
+++ b/template/activity_order.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D427AD0-345C-428F-BD54-4B0AE67777F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE585717-E3AB-46B2-B18A-CCE7CE84BD55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,47 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
-  <si>
-    <t>철거</t>
-  </si>
-  <si>
-    <t>마킹</t>
-  </si>
-  <si>
-    <t>칸막이A</t>
-  </si>
-  <si>
-    <t>칸막이B</t>
-  </si>
-  <si>
-    <t>방통</t>
-  </si>
-  <si>
-    <t>천정</t>
-  </si>
-  <si>
-    <t>바닥</t>
-  </si>
-  <si>
-    <t>도어</t>
-  </si>
-  <si>
-    <t>가구</t>
-  </si>
-  <si>
-    <t>가전</t>
-  </si>
-  <si>
-    <t>seq_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>previous</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,127 +392,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_order.xlsx
+++ b/template/activity_order.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE585717-E3AB-46B2-B18A-CCE7CE84BD55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D562E13F-5512-4E6A-B434-0F1611BCDBCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>previous</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,44 +30,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>T10010</t>
+  </si>
+  <si>
+    <t>T10020</t>
+  </si>
+  <si>
+    <t>T10030</t>
+  </si>
+  <si>
+    <t>T10040</t>
+  </si>
+  <si>
+    <t>T10050</t>
+  </si>
+  <si>
+    <t>T10060</t>
+  </si>
+  <si>
+    <t>T10070</t>
+  </si>
+  <si>
+    <t>T10080</t>
+  </si>
+  <si>
+    <t>T10090</t>
   </si>
 </sst>
 </file>
@@ -110,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -392,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -413,75 +403,67 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_order.xlsx
+++ b/template/activity_order.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D562E13F-5512-4E6A-B434-0F1611BCDBCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
-  <si>
-    <t>previous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>next</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="170">
   <si>
     <t>T10010</t>
   </si>
@@ -55,13 +46,500 @@
   </si>
   <si>
     <t>T10090</t>
+  </si>
+  <si>
+    <t>predecessor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>successor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A41510</t>
+  </si>
+  <si>
+    <t>A44510</t>
+  </si>
+  <si>
+    <t>A45510</t>
+  </si>
+  <si>
+    <t>A46010</t>
+  </si>
+  <si>
+    <t>A47510</t>
+  </si>
+  <si>
+    <t>A48510</t>
+  </si>
+  <si>
+    <t>A41810</t>
+  </si>
+  <si>
+    <t>A66510</t>
+  </si>
+  <si>
+    <t>A67010</t>
+  </si>
+  <si>
+    <t>A43010</t>
+  </si>
+  <si>
+    <t>A43020</t>
+  </si>
+  <si>
+    <t>A43021</t>
+  </si>
+  <si>
+    <t>A43022</t>
+  </si>
+  <si>
+    <t>A57510</t>
+  </si>
+  <si>
+    <t>A61510</t>
+  </si>
+  <si>
+    <t>A63010</t>
+  </si>
+  <si>
+    <t>A63020</t>
+  </si>
+  <si>
+    <t>A44520</t>
+  </si>
+  <si>
+    <t>A44521</t>
+  </si>
+  <si>
+    <t>A45010</t>
+  </si>
+  <si>
+    <t>A45011</t>
+  </si>
+  <si>
+    <t>A45012</t>
+  </si>
+  <si>
+    <t>A49510</t>
+  </si>
+  <si>
+    <t>A45520</t>
+  </si>
+  <si>
+    <t>A48530</t>
+  </si>
+  <si>
+    <t>A46020</t>
+  </si>
+  <si>
+    <t>A50510</t>
+  </si>
+  <si>
+    <t>A47520</t>
+  </si>
+  <si>
+    <t>A47530</t>
+  </si>
+  <si>
+    <t>A52510</t>
+  </si>
+  <si>
+    <t>A47540</t>
+  </si>
+  <si>
+    <t>M00009</t>
+  </si>
+  <si>
+    <t>A48520</t>
+  </si>
+  <si>
+    <t>A51510</t>
+  </si>
+  <si>
+    <t>A53010</t>
+  </si>
+  <si>
+    <t>A53510</t>
+  </si>
+  <si>
+    <t>A60020</t>
+  </si>
+  <si>
+    <t>A54510</t>
+  </si>
+  <si>
+    <t>A55010</t>
+  </si>
+  <si>
+    <t>A49520</t>
+  </si>
+  <si>
+    <t>A49530</t>
+  </si>
+  <si>
+    <t>A49540</t>
+  </si>
+  <si>
+    <t>A56510</t>
+  </si>
+  <si>
+    <t>A57010</t>
+  </si>
+  <si>
+    <t>A50520</t>
+  </si>
+  <si>
+    <t>A51010</t>
+  </si>
+  <si>
+    <t>A59510</t>
+  </si>
+  <si>
+    <t>A60010</t>
+  </si>
+  <si>
+    <t>A59010</t>
+  </si>
+  <si>
+    <t>A51520</t>
+  </si>
+  <si>
+    <t>A51530</t>
+  </si>
+  <si>
+    <t>A58010</t>
+  </si>
+  <si>
+    <t>A52010</t>
+  </si>
+  <si>
+    <t>A52520</t>
+  </si>
+  <si>
+    <t>A52530</t>
+  </si>
+  <si>
+    <t>A54010</t>
+  </si>
+  <si>
+    <t>A53020</t>
+  </si>
+  <si>
+    <t>A53520</t>
+  </si>
+  <si>
+    <t>A54020</t>
+  </si>
+  <si>
+    <t>A54030</t>
+  </si>
+  <si>
+    <t>A54520</t>
+  </si>
+  <si>
+    <t>A54530</t>
+  </si>
+  <si>
+    <t>A60510</t>
+  </si>
+  <si>
+    <t>A62010</t>
+  </si>
+  <si>
+    <t>A56520</t>
+  </si>
+  <si>
+    <t>A60710</t>
+  </si>
+  <si>
+    <t>A57520</t>
+  </si>
+  <si>
+    <t>A57530</t>
+  </si>
+  <si>
+    <t>A62040</t>
+  </si>
+  <si>
+    <t>A59020</t>
+  </si>
+  <si>
+    <t>A59030</t>
+  </si>
+  <si>
+    <t>A61020</t>
+  </si>
+  <si>
+    <t>A60720</t>
+  </si>
+  <si>
+    <t>A60520</t>
+  </si>
+  <si>
+    <t>A60530</t>
+  </si>
+  <si>
+    <t>A61010</t>
+  </si>
+  <si>
+    <t>A66010</t>
+  </si>
+  <si>
+    <t>A62510</t>
+  </si>
+  <si>
+    <t>A61520</t>
+  </si>
+  <si>
+    <t>A61530</t>
+  </si>
+  <si>
+    <t>A61540</t>
+  </si>
+  <si>
+    <t>A62020</t>
+  </si>
+  <si>
+    <t>A62030</t>
+  </si>
+  <si>
+    <t>A62050</t>
+  </si>
+  <si>
+    <t>A64010</t>
+  </si>
+  <si>
+    <t>D10010</t>
+  </si>
+  <si>
+    <t>D10020</t>
+  </si>
+  <si>
+    <t>D10030</t>
+  </si>
+  <si>
+    <t>D11010</t>
+  </si>
+  <si>
+    <t>R10010</t>
+  </si>
+  <si>
+    <t>F20010</t>
+  </si>
+  <si>
+    <t>F20020</t>
+  </si>
+  <si>
+    <t>F20030</t>
+  </si>
+  <si>
+    <t>F20040</t>
+  </si>
+  <si>
+    <t>F20050</t>
+  </si>
+  <si>
+    <t>F20051</t>
+  </si>
+  <si>
+    <t>F20060</t>
+  </si>
+  <si>
+    <t>T30010</t>
+  </si>
+  <si>
+    <t>F20070</t>
+  </si>
+  <si>
+    <t>S10010</t>
+  </si>
+  <si>
+    <t>M00001</t>
+  </si>
+  <si>
+    <t>M00007</t>
+  </si>
+  <si>
+    <t>T37010</t>
+  </si>
+  <si>
+    <t>R10020</t>
+  </si>
+  <si>
+    <t>R11010</t>
+  </si>
+  <si>
+    <t>R11020</t>
+  </si>
+  <si>
+    <t>R11030</t>
+  </si>
+  <si>
+    <t>R12010</t>
+  </si>
+  <si>
+    <t>R12020</t>
+  </si>
+  <si>
+    <t>S10020</t>
+  </si>
+  <si>
+    <t>S10030</t>
+  </si>
+  <si>
+    <t>S10040</t>
+  </si>
+  <si>
+    <t>S10050</t>
+  </si>
+  <si>
+    <t>S10060</t>
+  </si>
+  <si>
+    <t>S10061</t>
+  </si>
+  <si>
+    <t>S10070</t>
+  </si>
+  <si>
+    <t>S11010</t>
+  </si>
+  <si>
+    <t>S11020</t>
+  </si>
+  <si>
+    <t>S11030</t>
+  </si>
+  <si>
+    <t>S11040</t>
+  </si>
+  <si>
+    <t>S11050</t>
+  </si>
+  <si>
+    <t>S11051</t>
+  </si>
+  <si>
+    <t>S11060</t>
+  </si>
+  <si>
+    <t>T35010</t>
+  </si>
+  <si>
+    <t>W10010</t>
+  </si>
+  <si>
+    <t>T30020</t>
+  </si>
+  <si>
+    <t>T30030</t>
+  </si>
+  <si>
+    <t>T30031</t>
+  </si>
+  <si>
+    <t>T30032</t>
+  </si>
+  <si>
+    <t>T30033</t>
+  </si>
+  <si>
+    <t>T30034</t>
+  </si>
+  <si>
+    <t>T30035</t>
+  </si>
+  <si>
+    <t>T30036</t>
+  </si>
+  <si>
+    <t>T30040</t>
+  </si>
+  <si>
+    <t>T30050</t>
+  </si>
+  <si>
+    <t>T32010</t>
+  </si>
+  <si>
+    <t>T32020</t>
+  </si>
+  <si>
+    <t>T35020</t>
+  </si>
+  <si>
+    <t>T35030</t>
+  </si>
+  <si>
+    <t>T35031</t>
+  </si>
+  <si>
+    <t>T35032</t>
+  </si>
+  <si>
+    <t>T35033</t>
+  </si>
+  <si>
+    <t>T35034</t>
+  </si>
+  <si>
+    <t>T35035</t>
+  </si>
+  <si>
+    <t>T35036</t>
+  </si>
+  <si>
+    <t>T35040</t>
+  </si>
+  <si>
+    <t>T35050</t>
+  </si>
+  <si>
+    <t>W10020</t>
+  </si>
+  <si>
+    <t>W10030</t>
+  </si>
+  <si>
+    <t>W10040</t>
+  </si>
+  <si>
+    <t>W10050</t>
+  </si>
+  <si>
+    <t>W10060</t>
+  </si>
+  <si>
+    <t>W10070</t>
+  </si>
+  <si>
+    <t>W11010</t>
+  </si>
+  <si>
+    <t>W11020</t>
+  </si>
+  <si>
+    <t>W11030</t>
+  </si>
+  <si>
+    <t>W11040</t>
+  </si>
+  <si>
+    <t>M00009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M00009</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +554,38 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,14 +593,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,89 +917,1792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+      <c r="B184" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_order.xlsx
+++ b/template/activity_order.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04842027-99F8-4914-8ADB-542ED07D1F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="169">
   <si>
     <t>T10010</t>
   </si>
@@ -144,9 +145,6 @@
   </si>
   <si>
     <t>A52510</t>
-  </si>
-  <si>
-    <t>A47540</t>
   </si>
   <si>
     <t>M00009</t>
@@ -538,7 +536,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,19 +915,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="12.58203125" customWidth="1"/>
+    <col min="1" max="2" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -937,7 +935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -945,7 +943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -961,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -969,7 +967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,7 +975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -985,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -993,7 +991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -1145,7 +1143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,7 +1151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1169,367 +1167,367 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>71</v>
       </c>
@@ -1537,1172 +1535,1156 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="B105" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="B127" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127" s="1" t="s">
+      <c r="B128" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A130" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B130" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A148" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A150" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A152" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A153" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A154" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A170" s="1" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A171" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A172" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A173" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A174" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B174" s="1" t="s">
+      <c r="B195" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A205" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A175" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B175" s="1" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A185" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A190" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A195" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A196" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A197" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A198" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A199" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A200" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A201" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A203" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A204" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A205" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A206" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A221" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A222" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/template/activity_order.xlsx
+++ b/template/activity_order.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04842027-99F8-4914-8ADB-542ED07D1F96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950E5D0B-E3FB-4EB7-A2A7-1E88E502E2E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="169">
   <si>
     <t>T10010</t>
   </si>
@@ -625,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -635,6 +635,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B220"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1192,19 +1195,19 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
@@ -1212,15 +1215,15 @@
         <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
@@ -1228,7 +1231,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
@@ -1236,7 +1239,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
@@ -1244,7 +1247,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
@@ -1252,7 +1255,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
@@ -1260,39 +1263,39 @@
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
@@ -1300,23 +1303,23 @@
         <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
@@ -1324,7 +1327,7 @@
         <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
@@ -1332,15 +1335,15 @@
         <v>54</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
@@ -1348,39 +1351,39 @@
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
@@ -1388,7 +1391,7 @@
         <v>40</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
@@ -1396,12 +1399,12 @@
         <v>40</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>64</v>
@@ -1409,10 +1412,10 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
@@ -1420,15 +1423,15 @@
         <v>64</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
@@ -1436,23 +1439,23 @@
         <v>44</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
@@ -1460,7 +1463,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
@@ -1468,63 +1471,63 @@
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
@@ -1532,7 +1535,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
@@ -1540,31 +1543,31 @@
         <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
@@ -1572,15 +1575,15 @@
         <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
@@ -1588,23 +1591,23 @@
         <v>53</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
@@ -1612,7 +1615,7 @@
         <v>76</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
@@ -1620,23 +1623,23 @@
         <v>76</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
@@ -1644,7 +1647,7 @@
         <v>61</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
@@ -1652,31 +1655,31 @@
         <v>61</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
@@ -1684,23 +1687,23 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
@@ -1708,31 +1711,31 @@
         <v>57</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
@@ -1740,39 +1743,39 @@
         <v>84</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
@@ -1780,79 +1783,79 @@
         <v>81</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
@@ -1860,7 +1863,7 @@
         <v>93</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
@@ -1868,15 +1871,15 @@
         <v>93</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
@@ -1884,15 +1887,15 @@
         <v>87</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
@@ -1900,15 +1903,15 @@
         <v>26</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
@@ -1916,39 +1919,39 @@
         <v>27</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
@@ -1956,87 +1959,87 @@
         <v>19</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
@@ -2044,15 +2047,15 @@
         <v>105</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
@@ -2060,15 +2063,15 @@
         <v>106</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
@@ -2076,199 +2079,199 @@
         <v>108</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
@@ -2276,7 +2279,7 @@
         <v>132</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
@@ -2284,7 +2287,7 @@
         <v>132</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
@@ -2292,7 +2295,7 @@
         <v>132</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
@@ -2300,7 +2303,7 @@
         <v>132</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
@@ -2308,364 +2311,364 @@
         <v>132</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>167</v>
@@ -2673,17 +2676,25 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A221" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>167</v>
       </c>
     </row>

--- a/template/activity_order.xlsx
+++ b/template/activity_order.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="173">
   <si>
     <t>T10010</t>
   </si>
@@ -522,9 +522,6 @@
     <t>successor</t>
   </si>
   <si>
-    <t>A47540</t>
-  </si>
-  <si>
     <t>W10041</t>
   </si>
   <si>
@@ -535,6 +532,12 @@
   </si>
   <si>
     <t>W10080</t>
+  </si>
+  <si>
+    <t>D12010</t>
+  </si>
+  <si>
+    <t>D12020</t>
   </si>
 </sst>
 </file>
@@ -917,10 +920,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B226"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1173,23 +1176,23 @@
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -1197,7 +1200,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -1205,7 +1208,7 @@
         <v>40</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
@@ -1213,7 +1216,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -1221,15 +1224,15 @@
         <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
@@ -1237,7 +1240,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
@@ -1245,7 +1248,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -1253,7 +1256,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -1261,7 +1264,7 @@
         <v>33</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -1269,39 +1272,39 @@
         <v>33</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
@@ -1309,23 +1312,23 @@
         <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
@@ -1333,7 +1336,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
@@ -1341,15 +1344,15 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
@@ -1357,39 +1360,39 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
@@ -1397,7 +1400,7 @@
         <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
@@ -1405,12 +1408,12 @@
         <v>38</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>62</v>
@@ -1418,10 +1421,10 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
@@ -1429,15 +1432,15 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
@@ -1445,23 +1448,23 @@
         <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
@@ -1469,7 +1472,7 @@
         <v>43</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -1477,63 +1480,63 @@
         <v>43</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
@@ -1541,7 +1544,7 @@
         <v>69</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -1549,31 +1552,31 @@
         <v>69</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
@@ -1581,15 +1584,15 @@
         <v>72</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -1597,23 +1600,23 @@
         <v>51</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
@@ -1621,7 +1624,7 @@
         <v>74</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
@@ -1629,23 +1632,23 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
@@ -1653,7 +1656,7 @@
         <v>59</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
@@ -1661,31 +1664,31 @@
         <v>59</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
@@ -1693,23 +1696,23 @@
         <v>78</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
@@ -1717,31 +1720,31 @@
         <v>55</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
@@ -1749,39 +1752,39 @@
         <v>82</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
@@ -1789,79 +1792,79 @@
         <v>79</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
@@ -1869,7 +1872,7 @@
         <v>91</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
@@ -1877,15 +1880,15 @@
         <v>91</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
@@ -1893,15 +1896,15 @@
         <v>85</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
@@ -1909,15 +1912,15 @@
         <v>24</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
@@ -1925,39 +1928,39 @@
         <v>25</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
@@ -1965,36 +1968,36 @@
         <v>17</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>96</v>
@@ -2005,76 +2008,76 @@
         <v>96</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>105</v>
@@ -2082,15 +2085,15 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>105</v>
@@ -2098,202 +2101,202 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
@@ -2301,7 +2304,7 @@
         <v>130</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.45">
@@ -2309,7 +2312,7 @@
         <v>130</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.45">
@@ -2317,7 +2320,7 @@
         <v>130</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.45">
@@ -2325,404 +2328,404 @@
         <v>130</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B222" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="B223" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B224" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B225" t="s">
         <v>39</v>
@@ -2730,9 +2733,25 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
+        <v>144</v>
+      </c>
+      <c r="B226" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>60</v>
+      </c>
+      <c r="B227" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
         <v>44</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B228" t="s">
         <v>39</v>
       </c>
     </row>

--- a/template/activity_order.xlsx
+++ b/template/activity_order.xlsx
@@ -583,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -595,28 +595,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -630,13 +615,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,6 +639,69 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>69850</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>603250</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="그림 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$A$1:$B$11" spid="_x0000_s1045"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="2578100" y="69850"/>
+              <a:ext cx="1924050" cy="2381250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,12 +966,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -932,7 +980,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -940,90 +988,90 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1196,18 +1244,18 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2759,5 +2807,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/template/activity_order.xlsx
+++ b/template/activity_order.xlsx
@@ -610,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -622,6 +622,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,7 +668,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$B$11" spid="_x0000_s1045"/>
+                  <a14:cameraTool cellRange="$A$1:$B$11" spid="_x0000_s1047"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -690,6 +693,66 @@
             </a:solidFill>
             <a:ln w="9525">
               <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>412750</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>31750</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="그림 2"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="$A$1:$B$34" spid="_x0000_s1048"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4972050" y="247650"/>
+              <a:ext cx="1924050" cy="7346950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
               <a:miter lim="800000"/>
               <a:headEnd/>
               <a:tailEnd/>
@@ -971,7 +1034,7 @@
   <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1076,178 +1139,178 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
     </row>
